--- a/data/trans_orig/OLA_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/OLA_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B41B74-72BE-4ADE-A93D-9B0F5F1445CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59067D20-DB5F-4399-A4C2-32F85E22B394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{133FC509-0963-4781-A5C6-6B2885710C9D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A94759C-5191-4C2C-85B9-E50D431FEBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC2A0A1-BC17-4067-97AC-9CF595C46152}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A9E2C1-F01B-4BCD-B67E-DE76BE8A566F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
